--- a/nls_crc/sim_incomplete/3.MSE/Comparison_Incomplete.xlsx
+++ b/nls_crc/sim_incomplete/3.MSE/Comparison_Incomplete.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\Work\Python\CCB\nls_drc\sim_incomplete\3.MSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DA60E4EC-4F0C-4CBE-A2B6-7CF080F3ECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB24442D-1257-41FD-BD7C-EE714B328BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2a_unnorm_com_ctrl" sheetId="1" r:id="rId1"/>
+    <sheet name="Changed_format" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>mean</t>
   </si>
@@ -53,12 +65,60 @@
   </si>
   <si>
     <t>2e_norm_inc</t>
+  </si>
+  <si>
+    <t>$R_{b}$</t>
+  </si>
+  <si>
+    <t>$R_{t}$</t>
+  </si>
+  <si>
+    <t>$H$</t>
+  </si>
+  <si>
+    <t>$log_{10}(x_{50})$</t>
+  </si>
+  <si>
+    <t>1.065E-1 (3.832E-3)</t>
+  </si>
+  <si>
+    <t>1.837E+0 (9.018E-2)</t>
+  </si>
+  <si>
+    <t>1.360E-3 (2.920E-5)</t>
+  </si>
+  <si>
+    <t>5.762E-3 (2.501E-4)</t>
+  </si>
+  <si>
+    <t>6.598E+1 (1.130E+0)</t>
+  </si>
+  <si>
+    <t>3.889E+0 (1.601E-1)</t>
+  </si>
+  <si>
+    <t>8.231E-3 (2.995E-4)</t>
+  </si>
+  <si>
+    <t>2.079E-2 (7.773E-4)</t>
+  </si>
+  <si>
+    <t>1.074E-1 (3.914E-3)</t>
+  </si>
+  <si>
+    <t>1.839E+0 (9.025E-2)</t>
+  </si>
+  <si>
+    <t>1.360E-3 (2.917E-5)</t>
+  </si>
+  <si>
+    <t>5.762E-3 (2.499E-4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -893,16 +953,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09E6BC3-C989-4FFD-B219-FD4EE6DF729C}">
+  <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
@@ -933,14 +995,14 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.478019719074331</v>
+        <v>1.15745274594384</v>
       </c>
       <c r="D2">
-        <v>1.7870476335835501E-2</v>
+        <v>7.0837637409331106E-2</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE(TEXT(C2,"0.00000"),"±",TEXT(D2,"0.00000"))</f>
-        <v>0.47802±0.01787</v>
+        <f>CONCATENATE(TEXT(C2,"0.000E+0")," (",TEXT(D2,"0.000E+0"),")")</f>
+        <v>1.157E+0 (7.084E-2)</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -952,8 +1014,8 @@
         <v>3.9140595694237904E-3</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J5" si="0">CONCATENATE(TEXT(H2,"0.00000"),"±",TEXT(I2,"0.00000"))</f>
-        <v>0.10744±0.00391</v>
+        <f t="shared" ref="J2:J5" si="0">CONCATENATE(TEXT(H2,"0.000E+0")," (",TEXT(I2,"0.000E+0"),")")</f>
+        <v>1.074E-1 (3.914E-3)</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
@@ -961,14 +1023,14 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.24657873401397801</v>
+        <v>1.8285381256526101</v>
       </c>
       <c r="D3">
-        <v>7.6867106028915902E-3</v>
+        <v>8.4751549956021494E-2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E5" si="1">CONCATENATE(TEXT(C3,"0.00000"),"±",TEXT(D3,"0.00000"))</f>
-        <v>0.24658±0.00769</v>
+        <f t="shared" ref="E3:E5" si="1">CONCATENATE(TEXT(C3,"0.000E+0")," (",TEXT(D3,"0.000E+0"),")")</f>
+        <v>1.829E+0 (8.475E-2)</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -981,7 +1043,7 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" si="0"/>
-        <v>1.83878±0.09025</v>
+        <v>1.839E+0 (9.025E-2)</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
@@ -996,7 +1058,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
-        <v>0.00130±0.00005</v>
+        <v>1.297E-3 (5.327E-5)</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -1009,7 +1071,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>0.00136±0.00003</v>
+        <v>1.360E-3 (2.917E-5)</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
@@ -1024,7 +1086,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
-        <v>0.00552±0.00027</v>
+        <v>5.522E-3 (2.738E-4)</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1037,7 +1099,7 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>0.00576±0.00025</v>
+        <v>5.762E-3 (2.499E-4)</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1065,14 +1127,14 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.71113445540406905</v>
+        <v>0.106545553099125</v>
       </c>
       <c r="D8">
-        <v>3.64306872534437E-2</v>
+        <v>3.83192886567023E-3</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" ref="E8:E11" si="2">CONCATENATE(TEXT(C8,"0.00000"),"±",TEXT(D8,"0.00000"))</f>
-        <v>0.71113±0.03643</v>
+        <f t="shared" ref="E8:E11" si="2">CONCATENATE(TEXT(C8,"0.000E+0")," (",TEXT(D8,"0.000E+0"),")")</f>
+        <v>1.065E-1 (3.832E-3)</v>
       </c>
       <c r="G8" t="s">
         <v>2</v>
@@ -1084,8 +1146,8 @@
         <v>1.12966009714348</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8:J11" si="3">CONCATENATE(TEXT(H8,"0.00000"),"±",TEXT(I8,"0.00000"))</f>
-        <v>65.97681±1.12966</v>
+        <f t="shared" ref="J8:J11" si="3">CONCATENATE(TEXT(H8,"0.000E+0")," (",TEXT(I8,"0.000E+0"),")")</f>
+        <v>6.598E+1 (1.130E+0)</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
@@ -1093,14 +1155,14 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.24825217776623901</v>
+        <v>1.8370643840393299</v>
       </c>
       <c r="D9">
-        <v>6.9055853707560401E-3</v>
+        <v>9.0182438440020607E-2</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
-        <v>0.24825±0.00691</v>
+        <v>1.837E+0 (9.018E-2)</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -1113,7 +1175,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="3"/>
-        <v>3.88890±0.16005</v>
+        <v>3.889E+0 (1.601E-1)</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
@@ -1128,7 +1190,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
-        <v>0.00136±0.00003</v>
+        <v>1.360E-3 (2.920E-5)</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
@@ -1141,7 +1203,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
-        <v>0.00823±0.00030</v>
+        <v>8.231E-3 (2.995E-4)</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
@@ -1156,7 +1218,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
-        <v>0.00576±0.00025</v>
+        <v>5.762E-3 (2.501E-4)</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1169,7 +1231,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>0.02079±0.00078</v>
+        <v>2.079E-2 (7.773E-4)</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
@@ -1188,14 +1250,14 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>18.3266148806952</v>
+        <v>65.9768083671201</v>
       </c>
       <c r="D14">
-        <v>0.48181336748963099</v>
+        <v>1.12966125834312</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ref="E14:E17" si="4">CONCATENATE(TEXT(C14,"0.00000"),"±",TEXT(D14,"0.00000"))</f>
-        <v>18.32661±0.48181</v>
+        <f t="shared" ref="E14:E17" si="4">CONCATENATE(TEXT(C14,"0.000E+0")," (",TEXT(D14,"0.000E+0"),")")</f>
+        <v>6.598E+1 (1.130E+0)</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
@@ -1203,14 +1265,14 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0.39110274033278802</v>
+        <v>3.8888991541278801</v>
       </c>
       <c r="D15">
-        <v>1.5931217985233E-2</v>
+        <v>0.16005232989516399</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="4"/>
-        <v>0.39110±0.01593</v>
+        <v>3.889E+0 (1.601E-1)</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1225,10 +1287,10 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="4"/>
-        <v>0.00823±0.00030</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+        <v>8.231E-3 (2.995E-4)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1302,89 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="4"/>
-        <v>0.02079±0.00078</v>
+        <v>2.079E-2 (7.773E-4)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
